--- a/results/rmse_models.xlsx
+++ b/results/rmse_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217B8AA9-BE6D-4682-94A4-846C76FB0083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A22DB0C-55B4-4C4F-B534-A696E7000B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A633EDBC-9148-4D69-883F-A1C7AB227CFD}"/>
   </bookViews>
@@ -84,7 +84,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +104,26 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -249,20 +273,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -287,14 +303,30 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -313,133 +345,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A88A819-C95A-F370-269D-2DBF22A29A64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3893820" y="662940"/>
-          <a:ext cx="2522220" cy="1836420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6F1F47-6F9C-9302-1D4E-645270BE104B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6713220" y="1074420"/>
-          <a:ext cx="2522220" cy="1836420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,162 +664,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE7938-5E74-4F26-8737-454703B009B1}">
-  <dimension ref="B3:J21"/>
+  <dimension ref="B3:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>13229295</v>
       </c>
-      <c r="D5" s="9">
-        <v>3909103</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1425907</v>
+      <c r="D5" s="6">
+        <v>4000370</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1421301</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>18498870</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>4542019</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>1651896</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="15">
         <v>11759505</v>
       </c>
-      <c r="D7" s="9">
-        <v>3488834</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1600828</v>
+      <c r="D7" s="6">
+        <v>3453199</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1600510</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>13169921</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>15118942</v>
       </c>
-      <c r="D9" s="9">
-        <v>3339058</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="6">
+        <v>3328293</v>
+      </c>
+      <c r="E9" s="6">
         <v>1094980</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>16189623</v>
       </c>
-      <c r="D10" s="9">
-        <v>3340420</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1609483</v>
+      <c r="D10" s="6">
+        <v>3331847</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1642520</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
-        <v>6978426</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1202671</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1182471</v>
+      <c r="C11" s="5">
+        <v>20987648</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4567633</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1629664</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>16786939</v>
       </c>
-      <c r="D12" s="12">
-        <v>3319446</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1022726</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J21" s="9">
-        <v>4701527560</v>
-      </c>
+      <c r="D12" s="14">
+        <v>3246088</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1071375</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C12">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D10 D12">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -926,7 +842,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D12">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -938,19 +866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -962,6 +878,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/rmse_models.xlsx
+++ b/results/rmse_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A22DB0C-55B4-4C4F-B534-A696E7000B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5AECD2-9CE5-43B0-8B1B-96DD48A99B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A633EDBC-9148-4D69-883F-A1C7AB227CFD}"/>
   </bookViews>
@@ -84,11 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,39 +94,29 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Garet"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Garet"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <name val="Garet"/>
     </font>
     <font>
       <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Garet"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,32 +131,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -251,82 +228,85 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -345,6 +325,1445 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Garet"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RMSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Garet"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="45000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Monthly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Weekly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13229295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000370</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1421301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA9-4E72-8CDE-81C8C526529E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bass_Model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="61000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Monthly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Weekly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18498870</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4542019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1651896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA9-4E72-8CDE-81C8C526529E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GGM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-FAA9-4E72-8CDE-81C8C526529E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Monthly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Weekly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11759505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3453199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA9-4E72-8CDE-81C8C526529E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Holt_Winters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="92000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Monthly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Weekly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13169921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FAA9-4E72-8CDE-81C8C526529E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="93000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Monthly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Weekly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15118942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3328293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1094980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FAA9-4E72-8CDE-81C8C526529E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exp_Smooth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Monthly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Weekly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16189623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3331847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1642520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FAA9-4E72-8CDE-81C8C526529E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GGM+SARIMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="62000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Monthly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Weekly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12123823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4027032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2053161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FAA9-4E72-8CDE-81C8C526529E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prophet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="46000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FAA9-4E72-8CDE-81C8C526529E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-FAA9-4E72-8CDE-81C8C526529E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Monthly</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Weekly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daily</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16786939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3246088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1071375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FAA9-4E72-8CDE-81C8C526529E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="47653119"/>
+        <c:axId val="47652159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="47653119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Garet"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47652159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47652159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Garet"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47653119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Garet"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Garet"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F70DA63-E641-3822-CECA-92A131E652D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5356860" y="1463040"/>
+          <a:ext cx="3535680" cy="1836420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10339E19-B966-72B5-31EB-ED535505B01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,219 +2083,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE7938-5E74-4F26-8737-454703B009B1}">
-  <dimension ref="B3:H20"/>
+  <dimension ref="B6:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C8" s="7">
         <v>13229295</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D8" s="7">
         <v>4000370</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E8" s="8">
         <v>1421301</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="2:5">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C9" s="9">
         <v>18498870</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D9" s="9">
         <v>4542019</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E9" s="10">
         <v>1651896</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C10" s="18">
         <v>11759505</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D10" s="7">
         <v>3453199</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E10" s="8">
         <v>1600510</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C11" s="9">
         <v>13169921</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="2:5">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C12" s="7">
         <v>15118942</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D12" s="7">
         <v>3328293</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E12" s="8">
         <v>1094980</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="13" spans="2:5">
+      <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C13" s="7">
         <v>16189623</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D13" s="7">
         <v>3331847</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E13" s="8">
         <v>1642520</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="14" spans="2:5">
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <v>20987648</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4567633</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1629664</v>
+      <c r="C14" s="9">
+        <v>12123823</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4027032</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2053161</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+    <row r="15" spans="2:5">
+      <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C15" s="11">
         <v>16786939</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D15" s="16">
         <v>3246088</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E15" s="17">
         <v>1071375</v>
       </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:C12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D10 D12">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E12">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/rmse_models.xlsx
+++ b/results/rmse_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5AECD2-9CE5-43B0-8B1B-96DD48A99B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF1A95E-D96A-4C66-B745-58A561D79EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A633EDBC-9148-4D69-883F-A1C7AB227CFD}"/>
   </bookViews>
@@ -254,28 +254,19 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,8 +293,17 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,7 +2086,7 @@
   <dimension ref="B6:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2098,136 +2098,136 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>13229295</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>4000370</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>1421301</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>18498870</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>4542019</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>1651896</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>11759505</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>3453199</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>1600510</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>13169921</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>15118942</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>3328293</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>1094980</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>16189623</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>3331847</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>1642520</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>12123823</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>4027032</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>2053161</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>16786939</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>3246088</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>1071375</v>
       </c>
     </row>
